--- a/Tovary.xlsx
+++ b/Tovary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baimu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimqa/Desktop/ElfBar_ALA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B967D6-EE96-4533-8729-DD048DAB47C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F5D49-2918-5B4E-98A2-759C0B97A176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{498A6C78-E4CD-0F4A-9919-0B1920DD701E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{498A6C78-E4CD-0F4A-9919-0B1920DD701E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Grape</t>
   </si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Neon rain </t>
   </si>
   <si>
-    <t>Столбец3</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -127,13 +124,19 @@
   </si>
   <si>
     <t>Тип:</t>
+  </si>
+  <si>
+    <t>Общие затраты:</t>
+  </si>
+  <si>
+    <t>Общие доходы:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +152,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,12 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,41 +523,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003B861D-120E-3C47-82F5-A95905272506}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -561,28 +571,28 @@
         <v>1700</v>
       </c>
       <c r="E2" s="1">
-        <f>C2 * $D2</f>
+        <f t="shared" ref="E2:E15" si="0">C2 * $D2</f>
         <v>34000</v>
       </c>
       <c r="F2" s="1">
         <v>2500</v>
       </c>
       <c r="G2" s="1">
-        <f xml:space="preserve"> F2 * $C2</f>
+        <f t="shared" ref="G2:G15" si="1" xml:space="preserve"> F2 * $C2</f>
         <v>50000</v>
       </c>
       <c r="H2" s="1">
-        <f xml:space="preserve"> G2 - $E2</f>
+        <f t="shared" ref="H2:H15" si="2" xml:space="preserve"> G2 - $E2</f>
         <v>16000</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -593,37 +603,38 @@
         <v>30</v>
       </c>
       <c r="D3" s="1">
+        <f>D2</f>
         <v>1700</v>
       </c>
       <c r="E3" s="1">
-        <f>C3 * $D3</f>
+        <f t="shared" si="0"/>
         <v>51000</v>
       </c>
       <c r="F3" s="1">
         <v>2500</v>
       </c>
       <c r="G3" s="1">
-        <f xml:space="preserve"> F3 * $C3</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="H3" s="1">
-        <f xml:space="preserve"> G3 - $E3</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -634,28 +645,29 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" ref="D4:D15" si="3">D3</f>
         <v>1700</v>
       </c>
       <c r="E4" s="1">
-        <f>C4 * $D4</f>
+        <f t="shared" si="0"/>
         <v>51000</v>
       </c>
       <c r="F4" s="1">
         <v>2500</v>
       </c>
       <c r="G4" s="1">
-        <f xml:space="preserve"> F4 * $C4</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="H4" s="1">
-        <f xml:space="preserve"> G4 - $E4</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -664,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -675,28 +687,28 @@
         <v>30</v>
       </c>
       <c r="D5" s="1">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="E5" s="1">
-        <f>C5 * $D5</f>
-        <v>51000</v>
+        <f t="shared" si="0"/>
+        <v>42000</v>
       </c>
       <c r="F5" s="1">
         <v>2500</v>
       </c>
       <c r="G5" s="1">
-        <f xml:space="preserve"> F5 * $C5</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="H5" s="1">
-        <f xml:space="preserve"> G5 - $E5</f>
-        <v>24000</v>
+        <f t="shared" si="2"/>
+        <v>33000</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -705,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -716,22 +728,23 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>1700</v>
+        <f>D5</f>
+        <v>1400</v>
       </c>
       <c r="E6" s="1">
-        <f>C6 * $D6</f>
-        <v>17000</v>
+        <f t="shared" si="0"/>
+        <v>14000</v>
       </c>
       <c r="F6" s="1">
         <v>2500</v>
       </c>
       <c r="G6" s="1">
-        <f xml:space="preserve"> F6 * $C6</f>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="H6" s="1">
-        <f xml:space="preserve"> G6 - $E6</f>
-        <v>8000</v>
+        <f t="shared" si="2"/>
+        <v>11000</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -740,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -751,21 +764,22 @@
         <v>40</v>
       </c>
       <c r="D7" s="1">
+        <f>D2</f>
         <v>1700</v>
       </c>
       <c r="E7" s="1">
-        <f>C7 * $D7</f>
+        <f t="shared" si="0"/>
         <v>68000</v>
       </c>
       <c r="F7" s="1">
         <v>2500</v>
       </c>
       <c r="G7" s="1">
-        <f xml:space="preserve"> F7 * $C7</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="H7" s="1">
-        <f xml:space="preserve"> G7 - $E7</f>
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
       <c r="M7">
@@ -775,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -786,21 +800,22 @@
         <v>20</v>
       </c>
       <c r="D8" s="1">
+        <f>D2</f>
         <v>1700</v>
       </c>
       <c r="E8" s="1">
-        <f>C8 * $D8</f>
+        <f t="shared" si="0"/>
         <v>34000</v>
       </c>
       <c r="F8" s="1">
         <v>2500</v>
       </c>
       <c r="G8" s="1">
-        <f xml:space="preserve"> F8 * $C8</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="H8" s="1">
-        <f xml:space="preserve"> G8 - $E8</f>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="M8">
@@ -810,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -821,21 +836,22 @@
         <v>30</v>
       </c>
       <c r="D9" s="1">
+        <f>D2</f>
         <v>1700</v>
       </c>
       <c r="E9" s="1">
-        <f>C9 * $D9</f>
+        <f t="shared" si="0"/>
         <v>51000</v>
       </c>
       <c r="F9" s="1">
         <v>2500</v>
       </c>
       <c r="G9" s="1">
-        <f xml:space="preserve"> F9 * $C9</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="H9" s="1">
-        <f xml:space="preserve"> G9 - $E9</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="M9">
@@ -845,7 +861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -856,21 +872,22 @@
         <v>40</v>
       </c>
       <c r="D10" s="1">
+        <f>D2</f>
         <v>1700</v>
       </c>
       <c r="E10" s="1">
-        <f>C10 * $D10</f>
+        <f t="shared" si="0"/>
         <v>68000</v>
       </c>
       <c r="F10" s="1">
         <v>2500</v>
       </c>
       <c r="G10" s="1">
-        <f xml:space="preserve"> F10 * $C10</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="H10" s="1">
-        <f xml:space="preserve"> G10 - $E10</f>
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
       <c r="M10">
@@ -880,7 +897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -891,22 +908,23 @@
         <v>30</v>
       </c>
       <c r="D11" s="1">
-        <v>1700</v>
+        <f>D5</f>
+        <v>1400</v>
       </c>
       <c r="E11" s="1">
-        <f>C11 * $D11</f>
-        <v>51000</v>
+        <f t="shared" si="0"/>
+        <v>42000</v>
       </c>
       <c r="F11" s="1">
         <v>2500</v>
       </c>
       <c r="G11" s="1">
-        <f xml:space="preserve"> F11 * $C11</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="H11" s="1">
-        <f xml:space="preserve"> G11 - $E11</f>
-        <v>24000</v>
+        <f t="shared" si="2"/>
+        <v>33000</v>
       </c>
       <c r="M11">
         <v>8</v>
@@ -915,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -926,22 +944,23 @@
         <v>30</v>
       </c>
       <c r="D12" s="1">
-        <v>1700</v>
+        <f>D5</f>
+        <v>1400</v>
       </c>
       <c r="E12" s="1">
-        <f>C12 * $D12</f>
-        <v>51000</v>
+        <f t="shared" si="0"/>
+        <v>42000</v>
       </c>
       <c r="F12" s="1">
         <v>2500</v>
       </c>
       <c r="G12" s="1">
-        <f xml:space="preserve"> F12 * $C12</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="H12" s="1">
-        <f xml:space="preserve"> G12 - $E12</f>
-        <v>24000</v>
+        <f t="shared" si="2"/>
+        <v>33000</v>
       </c>
       <c r="M12">
         <v>9</v>
@@ -950,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -961,21 +980,22 @@
         <v>30</v>
       </c>
       <c r="D13" s="1">
+        <f>D2</f>
         <v>1700</v>
       </c>
       <c r="E13" s="1">
-        <f>C13 * $D13</f>
+        <f t="shared" si="0"/>
         <v>51000</v>
       </c>
       <c r="F13" s="1">
         <v>2500</v>
       </c>
       <c r="G13" s="1">
-        <f xml:space="preserve"> F13 * $C13</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="H13" s="1">
-        <f xml:space="preserve"> G13 - $E13</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="M13">
@@ -985,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -996,22 +1016,23 @@
         <v>40</v>
       </c>
       <c r="D14" s="1">
-        <v>1700</v>
+        <f>D5</f>
+        <v>1400</v>
       </c>
       <c r="E14" s="1">
-        <f>C14 * $D14</f>
-        <v>68000</v>
+        <f t="shared" si="0"/>
+        <v>56000</v>
       </c>
       <c r="F14" s="1">
         <v>2500</v>
       </c>
       <c r="G14" s="1">
-        <f xml:space="preserve"> F14 * $C14</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="H14" s="1">
-        <f xml:space="preserve"> G14 - $E14</f>
-        <v>32000</v>
+        <f t="shared" si="2"/>
+        <v>44000</v>
       </c>
       <c r="M14">
         <v>11</v>
@@ -1020,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1031,21 +1052,22 @@
         <v>20</v>
       </c>
       <c r="D15" s="1">
+        <f>D2</f>
         <v>1700</v>
       </c>
       <c r="E15" s="1">
-        <f>C15 * $D15</f>
+        <f t="shared" si="0"/>
         <v>34000</v>
       </c>
       <c r="F15" s="1">
         <v>2500</v>
       </c>
       <c r="G15" s="1">
-        <f xml:space="preserve"> F15 * $C15</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="H15" s="1">
-        <f xml:space="preserve"> G15 - $E15</f>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="M15">
@@ -1055,7 +1077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1067,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D17" s="1"/>
       <c r="M17">
         <v>14</v>
@@ -1076,20 +1098,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
         <f>SUM(H2:H15)</f>
-        <v>320000</v>
+        <v>362000</v>
       </c>
       <c r="M18">
         <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(E2:E15)</f>
+        <v>638000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUM(G2:G15)</f>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
